--- a/biology/Biologie cellulaire et moléculaire/Ansérine/Ansérine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Ansérine/Ansérine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ans%C3%A9rine</t>
+          <t>Ansérine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'ansérine (N-β-alanyl-3-méthyl-L-histidine) est un dipeptide présent dans les muscles squelettiques et le cerveau des mammifères[3]. C'est un antioxydant qui préserverait de la fatigue.
+L'ansérine (N-β-alanyl-3-méthyl-L-histidine) est un dipeptide présent dans les muscles squelettiques et le cerveau des mammifères. C'est un antioxydant qui préserverait de la fatigue.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ans%C3%A9rine</t>
+          <t>Ansérine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Structure et propriétés chimiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ansérine est constituée d'une molécule de β-alanine reliée par une liaison peptidique à une molécule de méthylhistidine (dérivé méthylé de l'histidine).
-Le pKA du cycle d'imidazole de l'histidine est de 7,04, ce qui en fait un tampon efficace à pH physiologique[4].
+Le pKA du cycle d'imidazole de l'histidine est de 7,04, ce qui en fait un tampon efficace à pH physiologique.
 </t>
         </is>
       </c>
